--- a/data/pca/factorExposure/factorExposure_2018-02-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.005361946731651209</v>
+        <v>-0.01388435582938058</v>
       </c>
       <c r="C2">
-        <v>-0.02005771923660545</v>
+        <v>0.02965115047842804</v>
       </c>
       <c r="D2">
-        <v>0.02206745498449777</v>
+        <v>0.02274974523000735</v>
       </c>
       <c r="E2">
-        <v>0.01706200984252502</v>
+        <v>-0.01505862506161215</v>
       </c>
       <c r="F2">
-        <v>0.07871030849843082</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.01268833212137436</v>
+      </c>
+      <c r="G2">
+        <v>-0.01169330931752991</v>
+      </c>
+      <c r="H2">
+        <v>-0.04116958087415375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09283124944692601</v>
+        <v>-0.05045177475625091</v>
       </c>
       <c r="C3">
-        <v>-0.03678968009249201</v>
+        <v>0.07602207765631694</v>
       </c>
       <c r="D3">
-        <v>-0.001527704961724523</v>
+        <v>0.004374042652544426</v>
       </c>
       <c r="E3">
-        <v>0.09142105537755174</v>
+        <v>-0.05997244825597547</v>
       </c>
       <c r="F3">
-        <v>0.3004068507270793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.04875985794952739</v>
+      </c>
+      <c r="G3">
+        <v>-0.01603932655440707</v>
+      </c>
+      <c r="H3">
+        <v>-0.1149776322315064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.0392356470949934</v>
+        <v>-0.03263193634939569</v>
       </c>
       <c r="C4">
-        <v>7.994335405232872e-05</v>
+        <v>0.06731425191611175</v>
       </c>
       <c r="D4">
-        <v>0.02750073854932787</v>
+        <v>0.01577981184096334</v>
       </c>
       <c r="E4">
-        <v>-0.02556656962074722</v>
+        <v>0.01033813659379225</v>
       </c>
       <c r="F4">
-        <v>0.06567528872526676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.02356576702312594</v>
+      </c>
+      <c r="G4">
+        <v>-0.04708619006691207</v>
+      </c>
+      <c r="H4">
+        <v>-0.05157991840439494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03645409757244585</v>
+        <v>-0.01641313135335932</v>
       </c>
       <c r="C6">
-        <v>-0.01052295666422746</v>
+        <v>0.06330179639385031</v>
       </c>
       <c r="D6">
-        <v>0.03861666844280016</v>
+        <v>0.01069038122528731</v>
       </c>
       <c r="E6">
-        <v>-0.02586151678357857</v>
+        <v>0.01544162317811609</v>
       </c>
       <c r="F6">
-        <v>0.03203979033104906</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.0001336449046442992</v>
+      </c>
+      <c r="G6">
+        <v>-0.03013670423321433</v>
+      </c>
+      <c r="H6">
+        <v>-0.04726746140363163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03921102184012538</v>
+        <v>-0.004404007748740607</v>
       </c>
       <c r="C7">
-        <v>0.03551883662157906</v>
+        <v>0.03809173585282331</v>
       </c>
       <c r="D7">
-        <v>0.01673302728662794</v>
+        <v>0.009659490818708585</v>
       </c>
       <c r="E7">
-        <v>-0.007958373406534698</v>
+        <v>0.02190723204649084</v>
       </c>
       <c r="F7">
-        <v>0.03299112965572953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04460935327489391</v>
+      </c>
+      <c r="G7">
+        <v>0.0009761134830969189</v>
+      </c>
+      <c r="H7">
+        <v>-0.02371955770188596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.008893201879055925</v>
+        <v>0.00534868955927495</v>
       </c>
       <c r="C8">
-        <v>0.00952788075069343</v>
+        <v>0.005014000111527903</v>
       </c>
       <c r="D8">
-        <v>0.0300696883103065</v>
+        <v>0.001596523709968717</v>
       </c>
       <c r="E8">
-        <v>-0.01838433102238113</v>
+        <v>0.0003162788061159015</v>
       </c>
       <c r="F8">
-        <v>0.06371796190643467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.0210152357798473</v>
+      </c>
+      <c r="G8">
+        <v>-0.01541345436889263</v>
+      </c>
+      <c r="H8">
+        <v>-0.02383402825718722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03143002188970884</v>
+        <v>-0.01654654787068184</v>
       </c>
       <c r="C9">
-        <v>0.002128480407334126</v>
+        <v>0.04790883405488267</v>
       </c>
       <c r="D9">
-        <v>0.02475306666537686</v>
+        <v>0.01105319882651254</v>
       </c>
       <c r="E9">
-        <v>0.005204957036146594</v>
+        <v>0.007269260575746213</v>
       </c>
       <c r="F9">
-        <v>0.06895942161415704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01710044878488291</v>
+      </c>
+      <c r="G9">
+        <v>-0.01488066172532009</v>
+      </c>
+      <c r="H9">
+        <v>-0.04858394628546168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.05267000784430384</v>
+        <v>-0.1404136075959369</v>
       </c>
       <c r="C10">
-        <v>-0.02084658511467519</v>
+        <v>-0.1403277521425925</v>
       </c>
       <c r="D10">
-        <v>-0.1473305143282215</v>
+        <v>-0.01813736877511129</v>
       </c>
       <c r="E10">
-        <v>0.076821924757008</v>
+        <v>-0.03121085937447109</v>
       </c>
       <c r="F10">
-        <v>0.02530604615849842</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.02222534271383052</v>
+      </c>
+      <c r="G10">
+        <v>0.02812400042272714</v>
+      </c>
+      <c r="H10">
+        <v>0.006024923911611164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02537923221633538</v>
+        <v>-0.01148455054470709</v>
       </c>
       <c r="C11">
-        <v>-0.01256034056358512</v>
+        <v>0.0484752385857678</v>
       </c>
       <c r="D11">
-        <v>0.03863986517113389</v>
+        <v>-0.002293070417022787</v>
       </c>
       <c r="E11">
-        <v>-0.02251220902617781</v>
+        <v>0.01041794039959183</v>
       </c>
       <c r="F11">
-        <v>0.02611930907624197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.002297641488683987</v>
+      </c>
+      <c r="G11">
+        <v>-0.01349910606099804</v>
+      </c>
+      <c r="H11">
+        <v>-0.04549415062191413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03783758508930651</v>
+        <v>-0.01604802539507042</v>
       </c>
       <c r="C12">
-        <v>-0.01183924592947279</v>
+        <v>0.04652195654946589</v>
       </c>
       <c r="D12">
-        <v>0.0352638969603104</v>
+        <v>0.001528183942490416</v>
       </c>
       <c r="E12">
-        <v>-0.03518757470868106</v>
+        <v>0.01983396825262504</v>
       </c>
       <c r="F12">
-        <v>0.002432844450293315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.005731459604180849</v>
+      </c>
+      <c r="G12">
+        <v>-0.008046559609257122</v>
+      </c>
+      <c r="H12">
+        <v>-0.01851539952144033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.007537084747369244</v>
+        <v>-0.01253630915125405</v>
       </c>
       <c r="C13">
-        <v>-0.01610357672585945</v>
+        <v>0.02618328488490088</v>
       </c>
       <c r="D13">
-        <v>0.004523612518847493</v>
+        <v>0.01995836483694408</v>
       </c>
       <c r="E13">
-        <v>0.006595210612231582</v>
+        <v>-0.01427769024772257</v>
       </c>
       <c r="F13">
-        <v>0.06669107820809404</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.0003935202893389265</v>
+      </c>
+      <c r="G13">
+        <v>-0.02943755935884152</v>
+      </c>
+      <c r="H13">
+        <v>-0.06019145366428234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02334937034166136</v>
+        <v>-0.005357376179909698</v>
       </c>
       <c r="C14">
-        <v>0.008704941465393924</v>
+        <v>0.0201160218767235</v>
       </c>
       <c r="D14">
-        <v>0.01173768240500648</v>
+        <v>0.005640509170735213</v>
       </c>
       <c r="E14">
-        <v>-0.009056238247247083</v>
+        <v>0.009426987995205176</v>
       </c>
       <c r="F14">
-        <v>0.04778274547286501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02320904258372901</v>
+      </c>
+      <c r="G14">
+        <v>-0.01062973774861599</v>
+      </c>
+      <c r="H14">
+        <v>-0.01733581982407164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02584112911406342</v>
+        <v>-0.01314057514091085</v>
       </c>
       <c r="C16">
-        <v>-0.01145758440526005</v>
+        <v>0.04231494926394489</v>
       </c>
       <c r="D16">
-        <v>0.04515072533446601</v>
+        <v>-0.002453271181086176</v>
       </c>
       <c r="E16">
-        <v>-0.02287349066535203</v>
+        <v>0.009339007820142978</v>
       </c>
       <c r="F16">
-        <v>0.03612704891456215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.002733868327250919</v>
+      </c>
+      <c r="G16">
+        <v>-0.01347440604669341</v>
+      </c>
+      <c r="H16">
+        <v>-0.03384399395499418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03392713948531775</v>
+        <v>-0.01506022589754927</v>
       </c>
       <c r="C19">
-        <v>-0.007683527544843769</v>
+        <v>0.04591235081029185</v>
       </c>
       <c r="D19">
-        <v>0.02998926976569423</v>
+        <v>0.009325072536386689</v>
       </c>
       <c r="E19">
-        <v>-0.03171026303962532</v>
+        <v>-0.01441663991831103</v>
       </c>
       <c r="F19">
-        <v>0.08742119763442317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02825103195032668</v>
+      </c>
+      <c r="G19">
+        <v>-0.03663240100341168</v>
+      </c>
+      <c r="H19">
+        <v>-0.05445340058628132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002198060647553873</v>
+        <v>-0.0002470013699956948</v>
       </c>
       <c r="C20">
-        <v>0.01341457643917208</v>
+        <v>0.02195199090438368</v>
       </c>
       <c r="D20">
-        <v>-0.0009527372135903788</v>
+        <v>0.00983275626920084</v>
       </c>
       <c r="E20">
-        <v>-0.003699550277698804</v>
+        <v>-0.007433202382759263</v>
       </c>
       <c r="F20">
-        <v>0.04918760196072424</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01931556359042597</v>
+      </c>
+      <c r="G20">
+        <v>-0.02079285147840543</v>
+      </c>
+      <c r="H20">
+        <v>-0.02882737210296666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02660580867883684</v>
+        <v>-0.005069782599223722</v>
       </c>
       <c r="C21">
-        <v>0.01084357888575145</v>
+        <v>0.02221669943792242</v>
       </c>
       <c r="D21">
-        <v>0.02418257520364308</v>
+        <v>0.01231904885731888</v>
       </c>
       <c r="E21">
-        <v>-0.005842641463778783</v>
+        <v>-0.007396318127277918</v>
       </c>
       <c r="F21">
-        <v>0.0301963063385149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02858131593136292</v>
+      </c>
+      <c r="G21">
+        <v>-0.005266981364376936</v>
+      </c>
+      <c r="H21">
+        <v>-0.0341603692046631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02252491556850077</v>
+        <v>-0.007274622311629501</v>
       </c>
       <c r="C24">
-        <v>-0.01114440743228294</v>
+        <v>0.0406455580077988</v>
       </c>
       <c r="D24">
-        <v>0.02746953933910497</v>
+        <v>0.002794681548438048</v>
       </c>
       <c r="E24">
-        <v>-0.02122543300131455</v>
+        <v>0.01405956892564224</v>
       </c>
       <c r="F24">
-        <v>0.02232427405310251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.002616937034163108</v>
+      </c>
+      <c r="G24">
+        <v>-0.01021221521281365</v>
+      </c>
+      <c r="H24">
+        <v>-0.03735674402987817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03203601073167634</v>
+        <v>-0.0216120743040959</v>
       </c>
       <c r="C25">
-        <v>-0.01175555941527601</v>
+        <v>0.0497219170527016</v>
       </c>
       <c r="D25">
-        <v>0.03230586253951993</v>
+        <v>0.005658367029946221</v>
       </c>
       <c r="E25">
-        <v>-0.01619266378255337</v>
+        <v>0.0180475185806057</v>
       </c>
       <c r="F25">
-        <v>0.03327885150723462</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.003941230768358939</v>
+      </c>
+      <c r="G25">
+        <v>-0.01696768907050024</v>
+      </c>
+      <c r="H25">
+        <v>-0.03534522765055666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01168460652909376</v>
+        <v>-0.003244161068643578</v>
       </c>
       <c r="C26">
-        <v>0.0002042361418593845</v>
+        <v>0.006140618672492152</v>
       </c>
       <c r="D26">
-        <v>0.01354697349147834</v>
+        <v>0.0225955202477464</v>
       </c>
       <c r="E26">
-        <v>0.01787561277058249</v>
+        <v>0.00235562595968962</v>
       </c>
       <c r="F26">
-        <v>0.04739716809364874</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01089175159755262</v>
+      </c>
+      <c r="G26">
+        <v>0.0005089125659826811</v>
+      </c>
+      <c r="H26">
+        <v>-0.01571706541373524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.01988034353441739</v>
+        <v>-0.005637731730295881</v>
       </c>
       <c r="C27">
-        <v>0.0003700761827698412</v>
+        <v>0.00594617243783944</v>
       </c>
       <c r="D27">
-        <v>-0.002066555911846919</v>
+        <v>-0.001639591030077746</v>
       </c>
       <c r="E27">
-        <v>-0.02926419142945976</v>
+        <v>0.002778140714522591</v>
       </c>
       <c r="F27">
-        <v>0.01895526770853601</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.01158042305750891</v>
+      </c>
+      <c r="G27">
+        <v>-0.008565962892529795</v>
+      </c>
+      <c r="H27">
+        <v>0.006233967331105488</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.09474946986743388</v>
+        <v>-0.1922228260723466</v>
       </c>
       <c r="C28">
-        <v>-0.03152020267651664</v>
+        <v>-0.1773383954882222</v>
       </c>
       <c r="D28">
-        <v>-0.2054938956549524</v>
+        <v>-0.01132989664411263</v>
       </c>
       <c r="E28">
-        <v>0.1069777038528386</v>
+        <v>-0.02288413509333662</v>
       </c>
       <c r="F28">
-        <v>0.01004445408305776</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.03405003355366649</v>
+      </c>
+      <c r="G28">
+        <v>0.03065288005075853</v>
+      </c>
+      <c r="H28">
+        <v>0.004507213687879049</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02535219547597708</v>
+        <v>-0.009804957262714234</v>
       </c>
       <c r="C29">
-        <v>0.00493184979746012</v>
+        <v>0.01891707395671744</v>
       </c>
       <c r="D29">
-        <v>0.01103021585386599</v>
+        <v>0.004683671748864401</v>
       </c>
       <c r="E29">
-        <v>-0.01156618522398712</v>
+        <v>0.007624085617651225</v>
       </c>
       <c r="F29">
-        <v>0.044417796415529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02275671932931468</v>
+      </c>
+      <c r="G29">
+        <v>-0.009240551970335627</v>
+      </c>
+      <c r="H29">
+        <v>-0.00715595739839648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03047229848325072</v>
+        <v>-0.02133283324478885</v>
       </c>
       <c r="C30">
-        <v>-0.05418298433801269</v>
+        <v>0.08660623769834218</v>
       </c>
       <c r="D30">
-        <v>0.05249789116881155</v>
+        <v>0.0197486004065872</v>
       </c>
       <c r="E30">
-        <v>-0.009091900693191345</v>
+        <v>-0.00485926931311784</v>
       </c>
       <c r="F30">
-        <v>0.08241299215498163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.0236372860372472</v>
+      </c>
+      <c r="G30">
+        <v>-0.04189831830054937</v>
+      </c>
+      <c r="H30">
+        <v>-0.06770836007714891</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04294194998943903</v>
+        <v>-0.03011065135234854</v>
       </c>
       <c r="C31">
-        <v>-0.01476837926455681</v>
+        <v>0.03210623533231594</v>
       </c>
       <c r="D31">
-        <v>0.02257751324776308</v>
+        <v>-0.0005435583919635995</v>
       </c>
       <c r="E31">
-        <v>-0.02488418791235333</v>
+        <v>0.01373108263728647</v>
       </c>
       <c r="F31">
-        <v>0.03931052657654337</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01063848509064379</v>
+      </c>
+      <c r="G31">
+        <v>-0.000205251326274057</v>
+      </c>
+      <c r="H31">
+        <v>0.001536560389699095</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02064992434911423</v>
+        <v>0.002373927264666614</v>
       </c>
       <c r="C32">
-        <v>0.02481133346595787</v>
+        <v>0.01339451722943271</v>
       </c>
       <c r="D32">
-        <v>0.04161095524803594</v>
+        <v>-0.008188550489852982</v>
       </c>
       <c r="E32">
-        <v>-0.03679172532128155</v>
+        <v>0.0003409123324094658</v>
       </c>
       <c r="F32">
-        <v>0.05280364714214263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.04403555235637319</v>
+      </c>
+      <c r="G32">
+        <v>-0.04097894295244005</v>
+      </c>
+      <c r="H32">
+        <v>-0.03821884052797957</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02699893922501609</v>
+        <v>-0.01397361710954409</v>
       </c>
       <c r="C33">
-        <v>-0.03006854444042975</v>
+        <v>0.04678445073016219</v>
       </c>
       <c r="D33">
-        <v>0.04480834935095778</v>
+        <v>0.009467274176303112</v>
       </c>
       <c r="E33">
-        <v>-0.0009737791700639178</v>
+        <v>-0.009993544658501823</v>
       </c>
       <c r="F33">
-        <v>0.06093212680975004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.004884072774103517</v>
+      </c>
+      <c r="G33">
+        <v>-0.001012997298393506</v>
+      </c>
+      <c r="H33">
+        <v>-0.04930664931586803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02856653991532165</v>
+        <v>-0.02170607265558278</v>
       </c>
       <c r="C34">
-        <v>-0.003669833798366595</v>
+        <v>0.05023000947735217</v>
       </c>
       <c r="D34">
-        <v>0.04269546852893851</v>
+        <v>-0.01062906641114414</v>
       </c>
       <c r="E34">
-        <v>-0.03288507071855903</v>
+        <v>0.02527713358478108</v>
       </c>
       <c r="F34">
-        <v>0.03020287366556458</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.006456342692945543</v>
+      </c>
+      <c r="G34">
+        <v>-0.01529592859885413</v>
+      </c>
+      <c r="H34">
+        <v>-0.03734471557887267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01776039812274089</v>
+        <v>-0.009840380757139344</v>
       </c>
       <c r="C36">
-        <v>0.005789687915981772</v>
+        <v>0.004820984778690003</v>
       </c>
       <c r="D36">
-        <v>0.001991158640395879</v>
+        <v>0.009437008747729436</v>
       </c>
       <c r="E36">
-        <v>-0.003431169332293466</v>
+        <v>0.003236616613558757</v>
       </c>
       <c r="F36">
-        <v>0.02809404558089275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01432332278668593</v>
+      </c>
+      <c r="G36">
+        <v>0.0007390317860782139</v>
+      </c>
+      <c r="H36">
+        <v>-0.01050267665599379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01287002971469134</v>
+        <v>-0.02457441105797314</v>
       </c>
       <c r="C38">
-        <v>-0.008542837284359315</v>
+        <v>0.02028601227614052</v>
       </c>
       <c r="D38">
-        <v>-0.0002046997640820296</v>
+        <v>-0.01143559585814706</v>
       </c>
       <c r="E38">
-        <v>0.0286844100154074</v>
+        <v>0.006889464380684959</v>
       </c>
       <c r="F38">
-        <v>0.04074460895367006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.001225974174151157</v>
+      </c>
+      <c r="G38">
+        <v>-0.008322273246151346</v>
+      </c>
+      <c r="H38">
+        <v>-0.03011000773205409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.01989730928074037</v>
+        <v>0.001592740382945985</v>
       </c>
       <c r="C39">
-        <v>-0.00782075674111834</v>
+        <v>0.085338200368513</v>
       </c>
       <c r="D39">
-        <v>0.05319429272802528</v>
+        <v>0.006441429824457201</v>
       </c>
       <c r="E39">
-        <v>-0.01718617821679782</v>
+        <v>0.01173692253329241</v>
       </c>
       <c r="F39">
-        <v>0.05597217564978835</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.007576255839373057</v>
+      </c>
+      <c r="G39">
+        <v>-0.02195747995367559</v>
+      </c>
+      <c r="H39">
+        <v>-0.07366815092715327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01348458539632007</v>
+        <v>-0.01876144619408728</v>
       </c>
       <c r="C40">
-        <v>-0.03693091050832434</v>
+        <v>0.02806820802780399</v>
       </c>
       <c r="D40">
-        <v>0.02060565264897905</v>
+        <v>0.007145155288396139</v>
       </c>
       <c r="E40">
-        <v>-0.02604079518416456</v>
+        <v>2.577115031681837e-05</v>
       </c>
       <c r="F40">
-        <v>0.03302678234345432</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02060420320186093</v>
+      </c>
+      <c r="G40">
+        <v>-0.02670875472211735</v>
+      </c>
+      <c r="H40">
+        <v>-0.04000118067232487</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.008667897452653712</v>
+        <v>-0.01000591524413176</v>
       </c>
       <c r="C41">
-        <v>-0.0006673758325516154</v>
+        <v>-0.007949490187490913</v>
       </c>
       <c r="D41">
-        <v>0.002908227994333827</v>
+        <v>0.002866907693476497</v>
       </c>
       <c r="E41">
-        <v>0.01268040789351831</v>
+        <v>0.003339735141979344</v>
       </c>
       <c r="F41">
-        <v>0.00200792160528481</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.00419275641699297</v>
+      </c>
+      <c r="G41">
+        <v>0.01230538264765038</v>
+      </c>
+      <c r="H41">
+        <v>0.005102024196721179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2208124272904962</v>
+        <v>-0.06703645853061178</v>
       </c>
       <c r="C42">
-        <v>-0.2233785584566403</v>
+        <v>0.2064455064219412</v>
       </c>
       <c r="D42">
-        <v>0.422988345891656</v>
+        <v>0.114172909563242</v>
       </c>
       <c r="E42">
-        <v>0.7129305768498274</v>
+        <v>-0.136720943473696</v>
       </c>
       <c r="F42">
-        <v>-0.4016726634360324</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.2307253722263053</v>
+      </c>
+      <c r="G42">
+        <v>0.9177188752807481</v>
+      </c>
+      <c r="H42">
+        <v>-0.07663308770535204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.009218895990927291</v>
+        <v>-0.01113077963430918</v>
       </c>
       <c r="C43">
-        <v>-0.00274525275494347</v>
+        <v>-0.004218779761448119</v>
       </c>
       <c r="D43">
-        <v>0.007760683687897633</v>
+        <v>0.003280451040012478</v>
       </c>
       <c r="E43">
-        <v>0.001345971082864706</v>
+        <v>-0.002187092500795678</v>
       </c>
       <c r="F43">
-        <v>0.02844719596463097</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.004570154437381972</v>
+      </c>
+      <c r="G43">
+        <v>0.006227462993282625</v>
+      </c>
+      <c r="H43">
+        <v>-0.00369221989192434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02154429071840611</v>
+        <v>-0.003852529581418711</v>
       </c>
       <c r="C44">
-        <v>0.0126644580045759</v>
+        <v>0.03913327879376144</v>
       </c>
       <c r="D44">
-        <v>0.02326520168962972</v>
+        <v>0.003061928736546156</v>
       </c>
       <c r="E44">
-        <v>0.02380199795532413</v>
+        <v>-0.005812284246566079</v>
       </c>
       <c r="F44">
-        <v>0.08451881446974954</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02687604613039793</v>
+      </c>
+      <c r="G44">
+        <v>0.0008021195514119025</v>
+      </c>
+      <c r="H44">
+        <v>-0.06158044595982118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01731049487536832</v>
+        <v>-0.001880511876942004</v>
       </c>
       <c r="C46">
-        <v>-0.002142222187636829</v>
+        <v>0.0125832743580003</v>
       </c>
       <c r="D46">
-        <v>0.03741001561960446</v>
+        <v>0.009914044063598252</v>
       </c>
       <c r="E46">
-        <v>-0.0207923311579372</v>
+        <v>0.0005000174912591326</v>
       </c>
       <c r="F46">
-        <v>0.07244039378739389</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01277152990176434</v>
+      </c>
+      <c r="G46">
+        <v>-0.006943787082125483</v>
+      </c>
+      <c r="H46">
+        <v>-0.01092422659582211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07447168321677582</v>
+        <v>-0.05045963277472576</v>
       </c>
       <c r="C47">
-        <v>-0.03361352144563241</v>
+        <v>0.067994040916878</v>
       </c>
       <c r="D47">
-        <v>0.01983108174154802</v>
+        <v>-0.01161073617483044</v>
       </c>
       <c r="E47">
-        <v>-0.03681394847872586</v>
+        <v>0.01741089831820856</v>
       </c>
       <c r="F47">
-        <v>0.01104899734465976</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.007557972553884422</v>
+      </c>
+      <c r="G47">
+        <v>0.001181372698084777</v>
+      </c>
+      <c r="H47">
+        <v>0.03749457044602487</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01990271000990523</v>
+        <v>-0.01048086426614257</v>
       </c>
       <c r="C48">
-        <v>-0.005839284226126321</v>
+        <v>0.01541229077492249</v>
       </c>
       <c r="D48">
-        <v>0.01331160815521256</v>
+        <v>-0.0002419194995122282</v>
       </c>
       <c r="E48">
-        <v>-0.005284975971710047</v>
+        <v>0.003893928214832915</v>
       </c>
       <c r="F48">
-        <v>0.02916092464230999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.007351049187822936</v>
+      </c>
+      <c r="G48">
+        <v>-0.002704090022283178</v>
+      </c>
+      <c r="H48">
+        <v>-0.01612447983108464</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08024862716068311</v>
+        <v>-0.05274726387316345</v>
       </c>
       <c r="C50">
-        <v>-0.007492442230163341</v>
+        <v>0.0617231665431533</v>
       </c>
       <c r="D50">
-        <v>0.03440274262729801</v>
+        <v>-0.009644910170454494</v>
       </c>
       <c r="E50">
-        <v>-0.02568587095921593</v>
+        <v>0.0176170796645185</v>
       </c>
       <c r="F50">
-        <v>0.02370764684156539</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02865021221885689</v>
+      </c>
+      <c r="G50">
+        <v>0.008475258749225998</v>
+      </c>
+      <c r="H50">
+        <v>0.02443527640649511</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01828696643901591</v>
+        <v>-0.01380128820596916</v>
       </c>
       <c r="C51">
-        <v>0.002862196348944345</v>
+        <v>0.01704519960690157</v>
       </c>
       <c r="D51">
-        <v>-0.01075420011830077</v>
+        <v>0.004489837474327343</v>
       </c>
       <c r="E51">
-        <v>0.01457004651934429</v>
+        <v>0.008204030197823236</v>
       </c>
       <c r="F51">
-        <v>0.09171813527571047</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.0150793587982017</v>
+      </c>
+      <c r="G51">
+        <v>-0.009920032046768645</v>
+      </c>
+      <c r="H51">
+        <v>-0.04517582533785369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08954988441510117</v>
+        <v>-0.06702025566411032</v>
       </c>
       <c r="C53">
-        <v>-0.03491833429360597</v>
+        <v>0.1000165739919738</v>
       </c>
       <c r="D53">
-        <v>0.04680077976303679</v>
+        <v>-0.0139264621323716</v>
       </c>
       <c r="E53">
-        <v>-0.06413192110681085</v>
+        <v>0.04459372976806766</v>
       </c>
       <c r="F53">
-        <v>-0.02615584726235389</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.002880204196017128</v>
+      </c>
+      <c r="G53">
+        <v>0.001207451146608491</v>
+      </c>
+      <c r="H53">
+        <v>0.04162548860477756</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02778726787082194</v>
+        <v>-0.0207128660218112</v>
       </c>
       <c r="C54">
-        <v>0.003834073299216806</v>
+        <v>0.001197882796697499</v>
       </c>
       <c r="D54">
-        <v>-0.007226626133389739</v>
+        <v>-0.006047904762915222</v>
       </c>
       <c r="E54">
-        <v>-0.01181997057809452</v>
+        <v>-0.0008836473126303226</v>
       </c>
       <c r="F54">
-        <v>0.02857192933013713</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02344144794620603</v>
+      </c>
+      <c r="G54">
+        <v>-0.004629013236823176</v>
+      </c>
+      <c r="H54">
+        <v>-0.004249455914550716</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07729012895995714</v>
+        <v>-0.04731240240464678</v>
       </c>
       <c r="C55">
-        <v>-0.02713799741476228</v>
+        <v>0.08926874646023784</v>
       </c>
       <c r="D55">
-        <v>0.05747429913646575</v>
+        <v>-0.01127996067631577</v>
       </c>
       <c r="E55">
-        <v>-0.04464548890863551</v>
+        <v>0.03289977178679252</v>
       </c>
       <c r="F55">
-        <v>-0.02213076958645595</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.003808188143701811</v>
+      </c>
+      <c r="G55">
+        <v>0.00750934595038257</v>
+      </c>
+      <c r="H55">
+        <v>0.04081413978497051</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1239432936959418</v>
+        <v>-0.09478153467464072</v>
       </c>
       <c r="C56">
-        <v>-0.05746604367280506</v>
+        <v>0.1330145549346665</v>
       </c>
       <c r="D56">
-        <v>0.04591120786160376</v>
+        <v>-0.02426366380837235</v>
       </c>
       <c r="E56">
-        <v>-0.0917565554903173</v>
+        <v>0.04352095790769702</v>
       </c>
       <c r="F56">
-        <v>-0.05425878137474386</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.007365850907024558</v>
+      </c>
+      <c r="G56">
+        <v>-0.007312023609147788</v>
+      </c>
+      <c r="H56">
+        <v>0.08230463745426683</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03410458065475407</v>
+        <v>-0.01958165680740152</v>
       </c>
       <c r="C57">
-        <v>-0.01665867576468561</v>
+        <v>0.0292750264877003</v>
       </c>
       <c r="D57">
-        <v>0.02250832084422601</v>
+        <v>0.02165320890701239</v>
       </c>
       <c r="E57">
-        <v>0.05014798095071215</v>
+        <v>-0.02779525706249343</v>
       </c>
       <c r="F57">
-        <v>0.04795638811011255</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.02102633009057499</v>
+      </c>
+      <c r="G57">
+        <v>-0.005219862378671378</v>
+      </c>
+      <c r="H57">
+        <v>-0.06247538845899987</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1440286135390257</v>
+        <v>-0.06701312272383864</v>
       </c>
       <c r="C58">
-        <v>-0.1837439456249098</v>
+        <v>0.2347422493945248</v>
       </c>
       <c r="D58">
-        <v>0.1810871596541669</v>
+        <v>0.001632611291402302</v>
       </c>
       <c r="E58">
-        <v>0.1230719237508014</v>
+        <v>-0.918161025854034</v>
       </c>
       <c r="F58">
-        <v>0.5989863077195542</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.202197179872151</v>
+      </c>
+      <c r="G58">
+        <v>-0.1381267753800912</v>
+      </c>
+      <c r="H58">
+        <v>0.1021511518879104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.07860804835887032</v>
+        <v>-0.2097326866491574</v>
       </c>
       <c r="C59">
-        <v>-0.05082396854476114</v>
+        <v>-0.1609377565271167</v>
       </c>
       <c r="D59">
-        <v>-0.1731510650299422</v>
+        <v>-0.01954810300861302</v>
       </c>
       <c r="E59">
-        <v>0.06394728381689097</v>
+        <v>-0.02619699937586567</v>
       </c>
       <c r="F59">
-        <v>0.05075788180590212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.009352842117726096</v>
+      </c>
+      <c r="G59">
+        <v>-0.0022933960693911</v>
+      </c>
+      <c r="H59">
+        <v>-0.01527383677257015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1473344821676518</v>
+        <v>-0.2303679908041688</v>
       </c>
       <c r="C60">
-        <v>-0.1060460437622715</v>
+        <v>0.1016240151175414</v>
       </c>
       <c r="D60">
-        <v>0.0005925841059411146</v>
+        <v>-0.01357012293140881</v>
       </c>
       <c r="E60">
-        <v>0.04141444603341478</v>
+        <v>0.0363950569378504</v>
       </c>
       <c r="F60">
-        <v>0.1506590362674209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.09457253509062626</v>
+      </c>
+      <c r="G60">
+        <v>-0.1223056236763052</v>
+      </c>
+      <c r="H60">
+        <v>-0.3784940162297791</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02154827306265431</v>
+        <v>-0.009586018521968453</v>
       </c>
       <c r="C61">
-        <v>-0.007738653603637491</v>
+        <v>0.06553586169736758</v>
       </c>
       <c r="D61">
-        <v>0.04107268699792882</v>
+        <v>-0.0001483097225422148</v>
       </c>
       <c r="E61">
-        <v>-0.01246793617160985</v>
+        <v>0.01276143899790293</v>
       </c>
       <c r="F61">
-        <v>0.02615880611213715</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.001448807109478791</v>
+      </c>
+      <c r="G61">
+        <v>-0.02335160259903575</v>
+      </c>
+      <c r="H61">
+        <v>-0.05431253680430838</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01485781154990902</v>
+        <v>-0.005431121178293865</v>
       </c>
       <c r="C63">
-        <v>0.0003695463354712476</v>
+        <v>0.02067965644546465</v>
       </c>
       <c r="D63">
-        <v>0.01822538614657241</v>
+        <v>0.005685482294022448</v>
       </c>
       <c r="E63">
-        <v>-0.003880450588777917</v>
+        <v>0.01735419946471162</v>
       </c>
       <c r="F63">
-        <v>0.005408647796851102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.009470107688966566</v>
+      </c>
+      <c r="G63">
+        <v>-0.003970735473282441</v>
+      </c>
+      <c r="H63">
+        <v>-0.01401979052999421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.04058724447196735</v>
+        <v>-0.03200697303070381</v>
       </c>
       <c r="C64">
-        <v>-0.002582762935525448</v>
+        <v>0.0455854864513508</v>
       </c>
       <c r="D64">
-        <v>0.03015146877369999</v>
+        <v>-0.0005425957635121592</v>
       </c>
       <c r="E64">
-        <v>-0.02452799634954495</v>
+        <v>0.02422218809810166</v>
       </c>
       <c r="F64">
-        <v>0.02796287949991051</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.003085387584312517</v>
+      </c>
+      <c r="G64">
+        <v>0.00219081565370249</v>
+      </c>
+      <c r="H64">
+        <v>-0.0319000482794078</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.04044188013876804</v>
+        <v>-0.03910049566462671</v>
       </c>
       <c r="C65">
-        <v>-0.01148889239945912</v>
+        <v>0.08528657402694099</v>
       </c>
       <c r="D65">
-        <v>0.04000033212561215</v>
+        <v>0.00864516845632563</v>
       </c>
       <c r="E65">
-        <v>-0.03177850697056007</v>
+        <v>0.03485078787237112</v>
       </c>
       <c r="F65">
-        <v>0.02639188734111592</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.01048928875960898</v>
+      </c>
+      <c r="G65">
+        <v>-0.04186512697362966</v>
+      </c>
+      <c r="H65">
+        <v>-0.05694128966783266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03120645368825797</v>
+        <v>-0.0087281516123423</v>
       </c>
       <c r="C66">
-        <v>-0.02186711802478464</v>
+        <v>0.1176878656396043</v>
       </c>
       <c r="D66">
-        <v>0.05923131608926199</v>
+        <v>0.00215864304082931</v>
       </c>
       <c r="E66">
-        <v>-0.04984850610878706</v>
+        <v>0.01619436992584</v>
       </c>
       <c r="F66">
-        <v>0.0494677427967795</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01422115166077652</v>
+      </c>
+      <c r="G66">
+        <v>-0.04844417690800709</v>
+      </c>
+      <c r="H66">
+        <v>-0.0767634374082756</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0260831030865643</v>
+        <v>-0.04869153982727054</v>
       </c>
       <c r="C67">
-        <v>-0.01673006316863012</v>
+        <v>0.03099925096360659</v>
       </c>
       <c r="D67">
-        <v>-0.008961107671483884</v>
+        <v>-0.01193778074591925</v>
       </c>
       <c r="E67">
-        <v>0.01965533821730729</v>
+        <v>0.01377082978506329</v>
       </c>
       <c r="F67">
-        <v>0.02565445819648286</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.002742958835649392</v>
+      </c>
+      <c r="G67">
+        <v>-0.01660288653604275</v>
+      </c>
+      <c r="H67">
+        <v>-0.02857589709406962</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08778995561718343</v>
+        <v>-0.211234883698285</v>
       </c>
       <c r="C68">
-        <v>-0.04187912335033511</v>
+        <v>-0.2012613061766366</v>
       </c>
       <c r="D68">
-        <v>-0.2031587551521429</v>
+        <v>0.0008718597825840363</v>
       </c>
       <c r="E68">
-        <v>0.0889824246422566</v>
+        <v>-0.03895789668489</v>
       </c>
       <c r="F68">
-        <v>0.03031291653786232</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02537661752781218</v>
+      </c>
+      <c r="G68">
+        <v>0.04191408825293091</v>
+      </c>
+      <c r="H68">
+        <v>0.02911876058753625</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06023402838614756</v>
+        <v>-0.05278563555977702</v>
       </c>
       <c r="C69">
-        <v>-0.02719646858057671</v>
+        <v>0.06346221670757007</v>
       </c>
       <c r="D69">
-        <v>0.0178281981254526</v>
+        <v>-0.01613918503955476</v>
       </c>
       <c r="E69">
-        <v>-0.04043451044746875</v>
+        <v>0.02933147817384556</v>
       </c>
       <c r="F69">
-        <v>0.01620074981746827</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.0001487697171268159</v>
+      </c>
+      <c r="G69">
+        <v>-0.01407340196329562</v>
+      </c>
+      <c r="H69">
+        <v>0.008326536874503016</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.09081680920686787</v>
+        <v>-0.1858925994862922</v>
       </c>
       <c r="C71">
-        <v>-0.04909005542874736</v>
+        <v>-0.1577460177354521</v>
       </c>
       <c r="D71">
-        <v>-0.193238004625828</v>
+        <v>-0.006229391348685536</v>
       </c>
       <c r="E71">
-        <v>0.1210719764545375</v>
+        <v>-0.04346535831959046</v>
       </c>
       <c r="F71">
-        <v>0.02989497929345747</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.0238794243709963</v>
+      </c>
+      <c r="G71">
+        <v>0.04523670890036838</v>
+      </c>
+      <c r="H71">
+        <v>0.006977549315387109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09354262423508876</v>
+        <v>-0.05392464690820865</v>
       </c>
       <c r="C72">
-        <v>-0.0529545140798014</v>
+        <v>0.1038639372038968</v>
       </c>
       <c r="D72">
-        <v>0.07626099511476205</v>
+        <v>-0.01914895333697555</v>
       </c>
       <c r="E72">
-        <v>-0.08225238281706558</v>
+        <v>0.04214570901245425</v>
       </c>
       <c r="F72">
-        <v>0.1352494262903498</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.02530453879414613</v>
+      </c>
+      <c r="G72">
+        <v>-0.0660765563396998</v>
+      </c>
+      <c r="H72">
+        <v>-0.08331743236067245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1733562846407382</v>
+        <v>-0.3034917074731799</v>
       </c>
       <c r="C73">
-        <v>-0.1738429919466366</v>
+        <v>0.1580052611053216</v>
       </c>
       <c r="D73">
-        <v>0.02485834420038133</v>
+        <v>-0.01469793269236721</v>
       </c>
       <c r="E73">
-        <v>0.07671435207918195</v>
+        <v>0.02734009055109897</v>
       </c>
       <c r="F73">
-        <v>0.1668662534788322</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1503302416390092</v>
+      </c>
+      <c r="G73">
+        <v>-0.130643399813811</v>
+      </c>
+      <c r="H73">
+        <v>-0.4728678595391609</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1152393394481975</v>
+        <v>-0.09115117507002034</v>
       </c>
       <c r="C74">
-        <v>-0.05428227315022247</v>
+        <v>0.1356893007331761</v>
       </c>
       <c r="D74">
-        <v>0.04373282456480938</v>
+        <v>-0.02424129097102282</v>
       </c>
       <c r="E74">
-        <v>-0.07391837672075506</v>
+        <v>0.04785733206612882</v>
       </c>
       <c r="F74">
-        <v>-0.05654665599289944</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.003684293906749474</v>
+      </c>
+      <c r="G74">
+        <v>-0.003917388754195791</v>
+      </c>
+      <c r="H74">
+        <v>0.05685087656133775</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.209770849821508</v>
+        <v>-0.1982096958974755</v>
       </c>
       <c r="C75">
-        <v>-0.116835269686559</v>
+        <v>0.2299593369308674</v>
       </c>
       <c r="D75">
-        <v>0.049550524295616</v>
+        <v>-0.05084730649585571</v>
       </c>
       <c r="E75">
-        <v>-0.1969435489737675</v>
+        <v>0.07511000834298304</v>
       </c>
       <c r="F75">
-        <v>-0.0736878536586817</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.02956163736014164</v>
+      </c>
+      <c r="G75">
+        <v>-0.03492213408715643</v>
+      </c>
+      <c r="H75">
+        <v>0.1839408826034732</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2525137636606418</v>
+        <v>-0.1368560765842229</v>
       </c>
       <c r="C76">
-        <v>-0.09495385444099996</v>
+        <v>0.1951548712306925</v>
       </c>
       <c r="D76">
-        <v>0.05528553815409357</v>
+        <v>-0.04249746109438864</v>
       </c>
       <c r="E76">
-        <v>-0.2379819128462128</v>
+        <v>0.09662514567218547</v>
       </c>
       <c r="F76">
-        <v>-0.1547492312565361</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.01207424183977355</v>
+      </c>
+      <c r="G76">
+        <v>-0.01397949433505416</v>
+      </c>
+      <c r="H76">
+        <v>0.1518084005601849</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09087869865018422</v>
+        <v>-0.04075791803651699</v>
       </c>
       <c r="C77">
-        <v>-0.05477382402263403</v>
+        <v>0.08870450682833762</v>
       </c>
       <c r="D77">
-        <v>0.08404804765118168</v>
+        <v>0.006471439745401676</v>
       </c>
       <c r="E77">
-        <v>0.04829825837179387</v>
+        <v>-0.0250556767411705</v>
       </c>
       <c r="F77">
-        <v>0.09270368467739673</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01556900236649827</v>
+      </c>
+      <c r="G77">
+        <v>0.01804345501621552</v>
+      </c>
+      <c r="H77">
+        <v>-0.01321979696443991</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04683484952794018</v>
+        <v>-0.02136294838160325</v>
       </c>
       <c r="C78">
-        <v>-0.00705273081984029</v>
+        <v>0.07635328525648191</v>
       </c>
       <c r="D78">
-        <v>0.09182894309501817</v>
+        <v>0.0005781315676622599</v>
       </c>
       <c r="E78">
-        <v>-0.02402995556699066</v>
+        <v>-0.0002595319983943951</v>
       </c>
       <c r="F78">
-        <v>0.09999396974907264</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01487644249879651</v>
+      </c>
+      <c r="G78">
+        <v>-0.02659692043646597</v>
+      </c>
+      <c r="H78">
+        <v>-0.08249330950365175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.5326178707409199</v>
+        <v>-0.09231563326276619</v>
       </c>
       <c r="C80">
-        <v>0.8216966200899202</v>
+        <v>0.1189502020647845</v>
       </c>
       <c r="D80">
-        <v>0.03249847641806544</v>
+        <v>-0.006253779573899914</v>
       </c>
       <c r="E80">
-        <v>0.1024575497057585</v>
+        <v>0.2057916416863552</v>
       </c>
       <c r="F80">
-        <v>0.02746734871520867</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.9086473625852043</v>
+      </c>
+      <c r="G80">
+        <v>0.2145139470231478</v>
+      </c>
+      <c r="H80">
+        <v>-0.1189418622065141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1640100435367582</v>
+        <v>-0.1197000263049511</v>
       </c>
       <c r="C81">
-        <v>-0.07644638978572681</v>
+        <v>0.1462567707198702</v>
       </c>
       <c r="D81">
-        <v>0.02777138096872046</v>
+        <v>-0.03044044480311276</v>
       </c>
       <c r="E81">
-        <v>-0.1519901303150387</v>
+        <v>0.0511346396580804</v>
       </c>
       <c r="F81">
-        <v>-0.05747369783662394</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.001629593789731769</v>
+      </c>
+      <c r="G81">
+        <v>-0.01604644290181696</v>
+      </c>
+      <c r="H81">
+        <v>0.1125022239369556</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.002960800488784864</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.001430128332989492</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.0005801660263248608</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01199343806253968</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.003874717339581587</v>
+      </c>
+      <c r="G82">
+        <v>-0.0001970440834384108</v>
+      </c>
+      <c r="H82">
+        <v>-0.002232346683720896</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03326682914253385</v>
+        <v>-0.02215698627852382</v>
       </c>
       <c r="C83">
-        <v>-0.02178946591574942</v>
+        <v>0.02191408606193266</v>
       </c>
       <c r="D83">
-        <v>0.02176902096785163</v>
+        <v>0.002465085624123268</v>
       </c>
       <c r="E83">
-        <v>0.03238646807624233</v>
+        <v>-0.01590625548592408</v>
       </c>
       <c r="F83">
-        <v>0.04536596873002897</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.007980902464902621</v>
+      </c>
+      <c r="G83">
+        <v>-0.001240260076635273</v>
+      </c>
+      <c r="H83">
+        <v>-0.04156782008842707</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2260788977262649</v>
+        <v>-0.1838380889262765</v>
       </c>
       <c r="C85">
-        <v>-0.1190618334170842</v>
+        <v>0.2219976212811171</v>
       </c>
       <c r="D85">
-        <v>0.06073912299852351</v>
+        <v>-0.03697744824811999</v>
       </c>
       <c r="E85">
-        <v>-0.2108467468324663</v>
+        <v>0.0997433174703324</v>
       </c>
       <c r="F85">
-        <v>-0.1073469545125305</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.05296790456920283</v>
+      </c>
+      <c r="G85">
+        <v>-0.02775787315141258</v>
+      </c>
+      <c r="H85">
+        <v>0.1250217737240794</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0008133514921453135</v>
+        <v>-0.006475700674521368</v>
       </c>
       <c r="C86">
-        <v>0.004001269030564797</v>
+        <v>0.03732028875174835</v>
       </c>
       <c r="D86">
-        <v>0.04740527350594746</v>
+        <v>0.005556207851650224</v>
       </c>
       <c r="E86">
-        <v>-0.005497693702832594</v>
+        <v>-0.003412961226352464</v>
       </c>
       <c r="F86">
-        <v>0.08712382673742333</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01051516072786227</v>
+      </c>
+      <c r="G86">
+        <v>-0.001888927608574303</v>
+      </c>
+      <c r="H86">
+        <v>-0.06657188789407126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02457307700277519</v>
+        <v>-0.0003044378770305889</v>
       </c>
       <c r="C87">
-        <v>-0.006570377959905237</v>
+        <v>0.04074825547278321</v>
       </c>
       <c r="D87">
-        <v>0.03585180354269251</v>
+        <v>0.007596327932931435</v>
       </c>
       <c r="E87">
-        <v>0.008078467833688848</v>
+        <v>-0.03745515281695897</v>
       </c>
       <c r="F87">
-        <v>0.09864287223774738</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.02708855628555401</v>
+      </c>
+      <c r="G87">
+        <v>-0.01792404272957543</v>
+      </c>
+      <c r="H87">
+        <v>-0.07964634545298807</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.03312043142335372</v>
+        <v>-0.04341524548385578</v>
       </c>
       <c r="C88">
-        <v>-0.006012460936667785</v>
+        <v>0.02819244284031372</v>
       </c>
       <c r="D88">
-        <v>-0.002476516917022787</v>
+        <v>0.01621494263677521</v>
       </c>
       <c r="E88">
-        <v>-0.01486184220168368</v>
+        <v>0.01138624334739088</v>
       </c>
       <c r="F88">
-        <v>-0.00305080460817259</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01580679539957817</v>
+      </c>
+      <c r="G88">
+        <v>-0.01321379261384093</v>
+      </c>
+      <c r="H88">
+        <v>0.006655843782794098</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1494470325465144</v>
+        <v>-0.3312757306450217</v>
       </c>
       <c r="C89">
-        <v>-0.1080683205878507</v>
+        <v>-0.2792699897111628</v>
       </c>
       <c r="D89">
-        <v>-0.3498442810934187</v>
+        <v>-0.01114562429142182</v>
       </c>
       <c r="E89">
-        <v>0.1045201250982414</v>
+        <v>-0.03119280977323603</v>
       </c>
       <c r="F89">
-        <v>0.05037095074425586</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.005193736239929232</v>
+      </c>
+      <c r="G89">
+        <v>0.02267344416813194</v>
+      </c>
+      <c r="H89">
+        <v>0.02543087803029255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1168147616168795</v>
+        <v>-0.2746686942786827</v>
       </c>
       <c r="C90">
-        <v>-0.05586890761930412</v>
+        <v>-0.2561013077724955</v>
       </c>
       <c r="D90">
-        <v>-0.3257562741368962</v>
+        <v>-0.01098725723634399</v>
       </c>
       <c r="E90">
-        <v>0.1071990078958978</v>
+        <v>-0.03967553973955636</v>
       </c>
       <c r="F90">
-        <v>-0.01869224744140372</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.02388866302049604</v>
+      </c>
+      <c r="G90">
+        <v>0.04811045674280606</v>
+      </c>
+      <c r="H90">
+        <v>0.05822274620338733</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.251792460079987</v>
+        <v>-0.1823284984277252</v>
       </c>
       <c r="C91">
-        <v>-0.1467188080112027</v>
+        <v>0.2008240605442936</v>
       </c>
       <c r="D91">
-        <v>0.07360826850210252</v>
+        <v>-0.04581713382157482</v>
       </c>
       <c r="E91">
-        <v>-0.1904639614526188</v>
+        <v>0.08544041143959526</v>
       </c>
       <c r="F91">
-        <v>-0.2012416009241883</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.03880570304096766</v>
+      </c>
+      <c r="G91">
+        <v>0.002159134070495038</v>
+      </c>
+      <c r="H91">
+        <v>0.1863562675272114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.176384615197101</v>
+        <v>-0.2811732552736803</v>
       </c>
       <c r="C92">
-        <v>-0.1009028114142612</v>
+        <v>-0.1818485101598152</v>
       </c>
       <c r="D92">
-        <v>-0.3929281342561565</v>
+        <v>-0.05626415513756004</v>
       </c>
       <c r="E92">
-        <v>0.01426062786963194</v>
+        <v>-0.04392904934779816</v>
       </c>
       <c r="F92">
-        <v>-0.116744301417465</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.03966753084496016</v>
+      </c>
+      <c r="G92">
+        <v>0.02217212557350859</v>
+      </c>
+      <c r="H92">
+        <v>0.1455135802937643</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1310857181885979</v>
+        <v>-0.3076580369482787</v>
       </c>
       <c r="C93">
-        <v>-0.1134703212785244</v>
+        <v>-0.2455966875091653</v>
       </c>
       <c r="D93">
-        <v>-0.3715551227421334</v>
+        <v>-0.02010280176275962</v>
       </c>
       <c r="E93">
-        <v>0.1682683778420028</v>
+        <v>-0.05643733906592763</v>
       </c>
       <c r="F93">
-        <v>-0.02159812656372541</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01321059356151382</v>
+      </c>
+      <c r="G93">
+        <v>0.04360101619186721</v>
+      </c>
+      <c r="H93">
+        <v>-0.0006341081995933221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2694706784052274</v>
+        <v>-0.2233484656434269</v>
       </c>
       <c r="C94">
-        <v>-0.1773049602125052</v>
+        <v>0.240633750547246</v>
       </c>
       <c r="D94">
-        <v>0.02570642866900345</v>
+        <v>-0.0373362989763768</v>
       </c>
       <c r="E94">
-        <v>-0.276489845224084</v>
+        <v>0.1157194373604553</v>
       </c>
       <c r="F94">
-        <v>-0.07535701374423912</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.07999467160017186</v>
+      </c>
+      <c r="G94">
+        <v>-0.08680309910403824</v>
+      </c>
+      <c r="H94">
+        <v>0.4652521611001918</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.02937298563030688</v>
+        <v>-0.04025343608126042</v>
       </c>
       <c r="C95">
-        <v>-0.1054072996166767</v>
+        <v>0.1106957456213353</v>
       </c>
       <c r="D95">
-        <v>0.04317201295634209</v>
+        <v>-0.01563878556103426</v>
       </c>
       <c r="E95">
-        <v>-0.02136923808153716</v>
+        <v>-0.04194166718543103</v>
       </c>
       <c r="F95">
-        <v>0.02905514881711413</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.08115414584967857</v>
+      </c>
+      <c r="G95">
+        <v>-0.02086162068204699</v>
+      </c>
+      <c r="H95">
+        <v>-0.06024917849044088</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1491706134341559</v>
+        <v>-0.1841294521997782</v>
       </c>
       <c r="C98">
-        <v>-0.120471519954086</v>
+        <v>0.07407869861818066</v>
       </c>
       <c r="D98">
-        <v>-0.01311266142284293</v>
+        <v>-0.03379570283961984</v>
       </c>
       <c r="E98">
-        <v>0.1023809651018324</v>
+        <v>-0.02522448522099614</v>
       </c>
       <c r="F98">
-        <v>0.1419280836715063</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.06565232748620399</v>
+      </c>
+      <c r="G98">
+        <v>-0.04332578363642894</v>
+      </c>
+      <c r="H98">
+        <v>-0.3240936063484263</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.009441663289056013</v>
+        <v>-0.003574403046269625</v>
       </c>
       <c r="C101">
-        <v>0.006676985280305539</v>
+        <v>0.02005282606293566</v>
       </c>
       <c r="D101">
-        <v>0.03227546148465513</v>
+        <v>0.005675319521533186</v>
       </c>
       <c r="E101">
-        <v>0.003819596895937394</v>
+        <v>-0.03082873948244264</v>
       </c>
       <c r="F101">
-        <v>0.1865532053342056</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03525514386217715</v>
+      </c>
+      <c r="G101">
+        <v>-0.02604490700986127</v>
+      </c>
+      <c r="H101">
+        <v>-0.007692471472961416</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1136098018091946</v>
+        <v>-0.09529780622530173</v>
       </c>
       <c r="C102">
-        <v>-0.05879518899668192</v>
+        <v>0.1085033739792362</v>
       </c>
       <c r="D102">
-        <v>0.02995006020187047</v>
+        <v>-0.01157539480250966</v>
       </c>
       <c r="E102">
-        <v>-0.1046245002117763</v>
+        <v>0.05461682817597826</v>
       </c>
       <c r="F102">
-        <v>-0.06947148276294156</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.02387649440739403</v>
+      </c>
+      <c r="G102">
+        <v>-0.01647343950098186</v>
+      </c>
+      <c r="H102">
+        <v>0.06815370242007332</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04100460696845808</v>
+        <v>-0.009759350147446158</v>
       </c>
       <c r="C103">
-        <v>-0.003429256038966883</v>
+        <v>0.01500815774955178</v>
       </c>
       <c r="D103">
-        <v>0.01570664590744732</v>
+        <v>-0.001768124510884034</v>
       </c>
       <c r="E103">
-        <v>-0.04163634368898491</v>
+        <v>0.005003402919141289</v>
       </c>
       <c r="F103">
-        <v>0.007948783358111692</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01558481076445462</v>
+      </c>
+      <c r="G103">
+        <v>-0.00199154847185987</v>
+      </c>
+      <c r="H103">
+        <v>0.01050837798763965</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.09693921702257112</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.009632310708274951</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9813206068589033</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04105847482520972</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.01734756869785272</v>
+      </c>
+      <c r="G104">
+        <v>-0.1111462889109127</v>
+      </c>
+      <c r="H104">
+        <v>0.05970866996754626</v>
       </c>
     </row>
   </sheetData>
